--- a/va_facility_data_2025-02-20/Westport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Westport%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Westport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Westport%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R83ce98f7e5dc49bd9dd0354e958cd847"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R20cad01471eb4ef28137220a95d08bde"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8e3c161c9cb8433da46ae1d9893225c8"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5e8028cd451a48c48a7a94f4a2f0f04b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra8e4dae215cf41988de2968517795344"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfe544616bd0046e691e5b32a9ccca31b"/>
   </x:sheets>
 </x:workbook>
 </file>
